--- a/MEDIA/100005_ 6212__會計科目餘額明細.xlsx
+++ b/MEDIA/100005_ 6212__會計科目餘額明細.xlsx
@@ -356,7 +356,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>森邦(股)會計科目餘額明細(100005_ 6212__2020-09-01~2020-10-22)</t>
+          <t>森邦(股)會計科目餘額明細(100005_ 6212__2020-10-01~2020-11-23)</t>
         </is>
       </c>
     </row>
@@ -419,7 +419,7 @@
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="n">
-        <v>320000</v>
+        <v>330000</v>
       </c>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
@@ -427,7 +427,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>20200922</t>
+          <t>20201022</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -442,7 +442,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>捐贈-9月份世界展望會-資助國內兒童5名          </t>
+          <t>捐贈-10月份世界展望會-資助國內兒童5名         </t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -452,11 +452,11 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>330000</v>
+        <v>340000</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>109141</t>
+          <t>110438</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
